--- a/output/output_brunomars.xlsx
+++ b/output/output_brunomars.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRABA\PycharmProjects\Spark\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -103,8 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +146,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -187,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,10 +460,16 @@
         <v>96</v>
       </c>
       <c r="C1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D1">
+        <v>188</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -454,10 +477,16 @@
         <v>75</v>
       </c>
       <c r="C2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>144</v>
+      </c>
+      <c r="D2">
+        <v>219</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -465,10 +494,16 @@
         <v>87</v>
       </c>
       <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>235</v>
+      </c>
+      <c r="D3">
+        <v>322</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -476,10 +511,16 @@
         <v>98</v>
       </c>
       <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -487,10 +528,16 @@
         <v>89</v>
       </c>
       <c r="C5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -498,10 +545,16 @@
         <v>87</v>
       </c>
       <c r="C6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>275</v>
+      </c>
+      <c r="D6">
+        <v>362</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -509,10 +562,16 @@
         <v>73</v>
       </c>
       <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>144</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -520,10 +579,16 @@
         <v>84</v>
       </c>
       <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>225</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -531,10 +596,16 @@
         <v>68</v>
       </c>
       <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>154</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -542,10 +613,16 @@
         <v>96</v>
       </c>
       <c r="C10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>160</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -553,10 +630,16 @@
         <v>69</v>
       </c>
       <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>133</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -564,10 +647,16 @@
         <v>62</v>
       </c>
       <c r="C12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <v>183</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -575,10 +664,16 @@
         <v>75</v>
       </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="D13">
+        <v>231</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -586,10 +681,16 @@
         <v>69</v>
       </c>
       <c r="C14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="D14">
+        <v>241</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -597,10 +698,16 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>234</v>
+      </c>
+      <c r="D15">
+        <v>339</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -608,10 +715,16 @@
         <v>104</v>
       </c>
       <c r="C16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>270</v>
+      </c>
+      <c r="D16">
+        <v>374</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -619,10 +732,16 @@
         <v>73</v>
       </c>
       <c r="C17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>204</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -630,10 +749,16 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>184</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -641,10 +766,16 @@
         <v>79</v>
       </c>
       <c r="C19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>175</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -652,10 +783,16 @@
         <v>85</v>
       </c>
       <c r="C20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>165</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -663,10 +800,16 @@
         <v>93</v>
       </c>
       <c r="C21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>2052</v>
+      </c>
+      <c r="D21">
+        <v>2145</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -674,10 +817,16 @@
         <v>119</v>
       </c>
       <c r="C22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>311</v>
+      </c>
+      <c r="D22">
+        <v>430</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -685,10 +834,16 @@
         <v>94</v>
       </c>
       <c r="C23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="D23">
+        <v>346</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -696,10 +851,16 @@
         <v>79</v>
       </c>
       <c r="C24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D24">
+        <v>236</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -707,10 +868,16 @@
         <v>84</v>
       </c>
       <c r="C25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D25">
+        <v>194</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -718,10 +885,16 @@
         <v>68</v>
       </c>
       <c r="C26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D26">
+        <v>178</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -729,10 +902,16 @@
         <v>82</v>
       </c>
       <c r="C27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D27">
+        <v>268</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -740,6 +919,12 @@
         <v>12</v>
       </c>
       <c r="C28">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>66</v>
+      </c>
+      <c r="E28">
         <v>8</v>
       </c>
     </row>
